--- a/MainTop/23.09.2024/макс 3 мес с 01.06.2024 по 23.09.2024/макс_печать.xlsx
+++ b/MainTop/23.09.2024/макс 3 мес с 01.06.2024 по 23.09.2024/макс_печать.xlsx
@@ -416,8 +416,8 @@
   </sheetPr>
   <dimension ref="A1:I82"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="2:70"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A46" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I45" activeCellId="0" sqref="I45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1230,7 +1230,7 @@
         <v>639</v>
       </c>
       <c r="G31" s="0" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I31" s="0" t="s">
         <v>36</v>
@@ -1282,7 +1282,7 @@
         <v>639</v>
       </c>
       <c r="G33" s="0" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I33" s="0" t="s">
         <v>36</v>
@@ -1308,7 +1308,7 @@
         <v>639</v>
       </c>
       <c r="G34" s="0" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I34" s="0" t="s">
         <v>36</v>

--- a/MainTop/23.09.2024/макс 3 мес с 01.06.2024 по 23.09.2024/макс_печать.xlsx
+++ b/MainTop/23.09.2024/макс 3 мес с 01.06.2024 по 23.09.2024/макс_печать.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="91">
   <si>
     <t xml:space="preserve">Артикул</t>
   </si>
@@ -239,9 +239,6 @@
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка Микки Маус надпись Дисней</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Термонаклейка Барт стоит с скейтом Симпсоны</t>
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка Эльза холодное сердце</t>
@@ -414,10 +411,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I82"/>
+  <dimension ref="A1:I1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A46" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I45" activeCellId="0" sqref="I45"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A52" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D74" activeCellId="0" sqref="D74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2128,13 +2125,13 @@
         <v>0.1</v>
       </c>
       <c r="C66" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D66" s="0" t="n">
         <v>20</v>
       </c>
       <c r="E66" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F66" s="0" t="n">
         <v>639</v>
@@ -2154,13 +2151,13 @@
         <v>0.1</v>
       </c>
       <c r="C67" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D67" s="0" t="n">
         <v>20</v>
       </c>
       <c r="E67" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F67" s="0" t="n">
         <v>639</v>
@@ -2229,7 +2226,7 @@
         <v>78</v>
       </c>
       <c r="B70" s="0" t="n">
-        <v>0.1</v>
+        <v>1.7</v>
       </c>
       <c r="C70" s="0" t="n">
         <v>0</v>
@@ -2238,42 +2235,42 @@
         <v>20</v>
       </c>
       <c r="E70" s="0" t="n">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="F70" s="0" t="n">
         <v>639</v>
       </c>
       <c r="G70" s="0" t="n">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="I70" s="0" t="s">
-        <v>36</v>
+        <v>79</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B71" s="0" t="n">
         <v>1.7</v>
       </c>
       <c r="C71" s="0" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D71" s="0" t="n">
         <v>20</v>
       </c>
       <c r="E71" s="0" t="n">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="F71" s="0" t="n">
         <v>639</v>
       </c>
       <c r="G71" s="0" t="n">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="I71" s="0" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2281,10 +2278,10 @@
         <v>81</v>
       </c>
       <c r="B72" s="0" t="n">
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
       <c r="C72" s="0" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D72" s="0" t="n">
         <v>20</v>
@@ -2299,7 +2296,7 @@
         <v>28</v>
       </c>
       <c r="I72" s="0" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2325,7 +2322,7 @@
         <v>28</v>
       </c>
       <c r="I73" s="0" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2333,7 +2330,7 @@
         <v>83</v>
       </c>
       <c r="B74" s="0" t="n">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
       <c r="C74" s="0" t="n">
         <v>0</v>
@@ -2342,16 +2339,16 @@
         <v>20</v>
       </c>
       <c r="E74" s="0" t="n">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F74" s="0" t="n">
         <v>639</v>
       </c>
       <c r="G74" s="0" t="n">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="I74" s="0" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2359,25 +2356,25 @@
         <v>84</v>
       </c>
       <c r="B75" s="0" t="n">
-        <v>1.1</v>
+        <v>1.6</v>
       </c>
       <c r="C75" s="0" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D75" s="0" t="n">
         <v>20</v>
       </c>
       <c r="E75" s="0" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F75" s="0" t="n">
         <v>639</v>
       </c>
       <c r="G75" s="0" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I75" s="0" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2385,25 +2382,25 @@
         <v>85</v>
       </c>
       <c r="B76" s="0" t="n">
-        <v>1.6</v>
+        <v>0.9</v>
       </c>
       <c r="C76" s="0" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="D76" s="0" t="n">
         <v>20</v>
       </c>
       <c r="E76" s="0" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F76" s="0" t="n">
         <v>639</v>
       </c>
       <c r="G76" s="0" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I76" s="0" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2411,7 +2408,7 @@
         <v>86</v>
       </c>
       <c r="B77" s="0" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="C77" s="0" t="n">
         <v>0</v>
@@ -2420,16 +2417,16 @@
         <v>20</v>
       </c>
       <c r="E77" s="0" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F77" s="0" t="n">
         <v>639</v>
       </c>
       <c r="G77" s="0" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="I77" s="0" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2455,7 +2452,7 @@
         <v>10</v>
       </c>
       <c r="I78" s="0" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2463,7 +2460,7 @@
         <v>88</v>
       </c>
       <c r="B79" s="0" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="C79" s="0" t="n">
         <v>0</v>
@@ -2472,16 +2469,16 @@
         <v>20</v>
       </c>
       <c r="E79" s="0" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F79" s="0" t="n">
         <v>639</v>
       </c>
       <c r="G79" s="0" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I79" s="0" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2489,7 +2486,7 @@
         <v>89</v>
       </c>
       <c r="B80" s="0" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="C80" s="0" t="n">
         <v>0</v>
@@ -2498,16 +2495,16 @@
         <v>20</v>
       </c>
       <c r="E80" s="0" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F80" s="0" t="n">
         <v>639</v>
       </c>
       <c r="G80" s="0" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I80" s="0" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2515,53 +2512,28 @@
         <v>90</v>
       </c>
       <c r="B81" s="0" t="n">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="C81" s="0" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="D81" s="0" t="n">
         <v>20</v>
       </c>
       <c r="E81" s="0" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F81" s="0" t="n">
         <v>639</v>
       </c>
       <c r="G81" s="0" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I81" s="0" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="B82" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C82" s="0" t="n">
-        <v>18</v>
-      </c>
-      <c r="D82" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="E82" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="F82" s="0" t="n">
-        <v>639</v>
-      </c>
-      <c r="G82" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="I82" s="0" t="s">
-        <v>80</v>
-      </c>
-    </row>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
